--- a/data/annotations/new_annotation_structure_out/iteration_11/iteration_11_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_11/iteration_11_mistral-large-2411-3.xlsx
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
